--- a/组-学号-动作.xlsx
+++ b/组-学号-动作.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20865" windowHeight="8850"/>
+    <workbookView windowWidth="16470" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -14,18 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
   <si>
-    <t>health_admin</t>
+    <t>task_admin</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>task_admin</t>
+    <t>task_data</t>
   </si>
   <si>
-    <t>-</t>
+    <t>knowing_admin</t>
+  </si>
+  <si>
+    <t>late_admin</t>
   </si>
 </sst>
 </file>
@@ -83,28 +86,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,6 +107,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -126,8 +153,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,91 +228,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -235,49 +238,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,133 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,22 +462,35 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,15 +506,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,17 +534,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,145 +552,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,10 +1047,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C396"/>
+  <dimension ref="A1:C394"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1069,7 +1072,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>19510102</v>
@@ -1083,18 +1086,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>19510102</v>
+        <v>19510103</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>19510102</v>
+        <v>19510104</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1102,10 +1105,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
+      <c r="B5" s="1">
+        <v>19510101</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
@@ -1113,10 +1116,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>19510104</v>
+        <v>19510101</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
@@ -1127,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>19510104</v>
+        <v>19510103</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
@@ -1135,12 +1138,14 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
         <v>19510104</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="1"/>
@@ -1274,25 +1279,23 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" ht="14.25" spans="2:3">
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" ht="14.25" spans="2:3">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="2:3">
       <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="4"/>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="4"/>
@@ -1337,79 +1340,79 @@
       <c r="B60" s="4"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="4"/>
+      <c r="B61" s="5"/>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="4"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="5"/>
+      <c r="B63" s="4"/>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="4"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="4"/>
+      <c r="B65" s="5"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="4"/>
+      <c r="B66" s="6"/>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="5"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="6"/>
+      <c r="B68" s="5"/>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="5"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="5"/>
+      <c r="B70" s="7"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="5"/>
+      <c r="B71" s="4"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="7"/>
+      <c r="B72" s="5"/>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="4"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="5"/>
+      <c r="B74" s="4"/>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="4"/>
+      <c r="B75" s="8"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="4"/>
+      <c r="B76" s="8"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="8"/>
+      <c r="B77" s="4"/>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="8"/>
+      <c r="B78" s="6"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="4"/>
+      <c r="B79" s="5"/>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="6"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="5"/>
+      <c r="B81" s="4"/>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="6"/>
+      <c r="B82" s="4"/>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="4"/>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="4"/>
+      <c r="B84" s="5"/>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="4"/>
+      <c r="B85" s="5"/>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="5"/>
@@ -1421,40 +1424,40 @@
       <c r="B88" s="5"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="5"/>
+      <c r="B89" s="6"/>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="5"/>
+      <c r="B90" s="7"/>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="6"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="7"/>
+      <c r="B92" s="6"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="6"/>
+      <c r="B93" s="4"/>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="6"/>
+      <c r="B94" s="4"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="4"/>
+      <c r="B95" s="5"/>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="4"/>
+      <c r="B96" s="5"/>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="5"/>
+      <c r="B97" s="9"/>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="5"/>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="9"/>
+      <c r="B99" s="5"/>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="5"/>
+      <c r="B100" s="4"/>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="5"/>
@@ -1463,67 +1466,67 @@
       <c r="B102" s="4"/>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="5"/>
+      <c r="B103" s="4"/>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="4"/>
+      <c r="B104" s="5"/>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="4"/>
+      <c r="B105" s="5"/>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="5"/>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="5"/>
+      <c r="B107" s="4"/>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="5"/>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="4"/>
+      <c r="B109" s="5"/>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="5"/>
+      <c r="B110" s="4"/>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="5"/>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="4"/>
+      <c r="B112" s="5"/>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="5"/>
+      <c r="B113" s="4"/>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="5"/>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="4"/>
+      <c r="B115" s="5"/>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="5"/>
+      <c r="B116" s="4"/>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="5"/>
+      <c r="B117" s="4"/>
     </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="4"/>
+      <c r="B118" s="9"/>
     </row>
     <row r="119" spans="2:2">
-      <c r="B119" s="4"/>
+      <c r="B119" s="5"/>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="9"/>
+      <c r="B120" s="5"/>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="5"/>
+      <c r="B121" s="4"/>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="5"/>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="4"/>
+      <c r="B123" s="5"/>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="5"/>
@@ -1535,37 +1538,37 @@
       <c r="B126" s="5"/>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="5"/>
+      <c r="B127" s="6"/>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="5"/>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="6"/>
+      <c r="B129" s="5"/>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="5"/>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="5"/>
+      <c r="B131" s="4"/>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="5"/>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="4"/>
+      <c r="B133" s="5"/>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="5"/>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="5"/>
+      <c r="B135" s="4"/>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="5"/>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="4"/>
+      <c r="B137" s="5"/>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="5"/>
@@ -1586,55 +1589,55 @@
       <c r="B143" s="5"/>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="5"/>
+      <c r="B144" s="6"/>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="5"/>
     </row>
     <row r="146" spans="2:2">
-      <c r="B146" s="6"/>
+      <c r="B146" s="4"/>
     </row>
     <row r="147" spans="2:2">
-      <c r="B147" s="5"/>
+      <c r="B147" s="4"/>
     </row>
     <row r="148" spans="2:2">
-      <c r="B148" s="4"/>
+      <c r="B148" s="5"/>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="4"/>
+      <c r="B149" s="7"/>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="5"/>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="7"/>
+      <c r="B151" s="4"/>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="5"/>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="4"/>
+      <c r="B153" s="5"/>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="5"/>
     </row>
     <row r="155" spans="2:2">
-      <c r="B155" s="5"/>
+      <c r="B155" s="4"/>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" s="5"/>
     </row>
     <row r="157" spans="2:2">
-      <c r="B157" s="4"/>
+      <c r="B157" s="5"/>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" s="5"/>
     </row>
-    <row r="159" spans="2:2">
-      <c r="B159" s="5"/>
-    </row>
-    <row r="160" spans="2:2">
-      <c r="B160" s="5"/>
+    <row r="159" ht="14.25" spans="2:2">
+      <c r="B159" s="10"/>
+    </row>
+    <row r="160" ht="14.25" spans="2:2">
+      <c r="B160" s="10"/>
     </row>
     <row r="161" ht="14.25" spans="2:2">
       <c r="B161" s="10"/>
@@ -2337,12 +2340,6 @@
     </row>
     <row r="394" ht="14.25" spans="2:2">
       <c r="B394" s="10"/>
-    </row>
-    <row r="395" ht="14.25" spans="2:2">
-      <c r="B395" s="10"/>
-    </row>
-    <row r="396" ht="14.25" spans="2:2">
-      <c r="B396" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
